--- a/documentation/configurable_parameter_definitions.xlsx
+++ b/documentation/configurable_parameter_definitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kril\Desktop\_files\_2018-Present\Development\reinforcement_learning\RL_Pygame_2D_Grid_Bots\gridworld\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kril\Desktop\_files\_2018-Present\Development\reinforcement_learning\RL_Pygame_2D_Grid_Bots\cat_and_mouse\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437470FE-A91D-4D1E-9714-67FC45AB2E81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7E236-296F-481B-8992-84DBB0EDE808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="148">
   <si>
     <t>Parameter</t>
   </si>
@@ -39,33 +39,15 @@
     <t>Category</t>
   </si>
   <si>
-    <t>(delete this): Currently configurable via gridworld set/get?</t>
-  </si>
-  <si>
-    <t>world (gridworld.py)</t>
-  </si>
-  <si>
     <t>timelimit</t>
   </si>
   <si>
-    <t>Sets number of iterations before simulation timeout.</t>
-  </si>
-  <si>
     <t>Simulation Param</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>goal_captured_reward</t>
   </si>
   <si>
-    <t>Reward value given to the player who captures any goal</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
     <t>player_goal_reward_gradient_factor</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>reset_stored_training_data</t>
   </si>
   <si>
-    <t>qnetwork_layersizes</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -150,15 +129,6 @@
     <t>(Must be Specified When Object Is Created)</t>
   </si>
   <si>
-    <t>Number of Horizontal Spaces in the Grid World</t>
-  </si>
-  <si>
-    <t>Number of Vertical Spaces in the Grid World</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>save_after_iter</t>
   </si>
   <si>
@@ -178,6 +148,327 @@
   </si>
   <si>
     <t>(Value propagated from player.qnetwork_layersizes)</t>
+  </si>
+  <si>
+    <t>wall (wall.py)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Reward / Penalty</t>
+  </si>
+  <si>
+    <t>world (cat_and_mouse.py)</t>
+  </si>
+  <si>
+    <t>World Class Set Function</t>
+  </si>
+  <si>
+    <t>qtable (qtable.py)</t>
+  </si>
+  <si>
+    <t>learning_rate</t>
+  </si>
+  <si>
+    <t>discount_factor</t>
+  </si>
+  <si>
+    <t>(Value propagated from player.alpha)</t>
+  </si>
+  <si>
+    <t>(Value propagated from player.gamma)</t>
+  </si>
+  <si>
+    <t>(Cannot be Changed after Initialization)</t>
+  </si>
+  <si>
+    <t>training_mode</t>
+  </si>
+  <si>
+    <t>replay_memory_capacity</t>
+  </si>
+  <si>
+    <t>network_reset_frequency</t>
+  </si>
+  <si>
+    <t>network_minibatch_size</t>
+  </si>
+  <si>
+    <t>network_training_delay</t>
+  </si>
+  <si>
+    <t>network_training_iter</t>
+  </si>
+  <si>
+    <t>state_queue_length</t>
+  </si>
+  <si>
+    <t>policy_manager (policy_manager.py)</t>
+  </si>
+  <si>
+    <t>default_policy</t>
+  </si>
+  <si>
+    <t>default_epsilon</t>
+  </si>
+  <si>
+    <t>policy_type (list of items)</t>
+  </si>
+  <si>
+    <t>num_cycles (list of items)</t>
+  </si>
+  <si>
+    <t>epsilons (list of items)</t>
+  </si>
+  <si>
+    <t>layersizes (list of items)</t>
+  </si>
+  <si>
+    <t>neural_network (neural_network.py)</t>
+  </si>
+  <si>
+    <t>training_batch_size</t>
+  </si>
+  <si>
+    <t>learning_rates (list of items)</t>
+  </si>
+  <si>
+    <t>leaky_relu_rates (list of items)</t>
+  </si>
+  <si>
+    <t>huber_cost_delta</t>
+  </si>
+  <si>
+    <t>use_huber_cost</t>
+  </si>
+  <si>
+    <t>use_hellinger_cost</t>
+  </si>
+  <si>
+    <t>use_quadratic_cost</t>
+  </si>
+  <si>
+    <t>use_leaky_relu (list of items)</t>
+  </si>
+  <si>
+    <t>use_sigmoid (list of items)</t>
+  </si>
+  <si>
+    <t>use_relu (list of items)</t>
+  </si>
+  <si>
+    <t>use_linear (list of items)</t>
+  </si>
+  <si>
+    <t>use_tanh (list of items)</t>
+  </si>
+  <si>
+    <t>number_of_stored_errors</t>
+  </si>
+  <si>
+    <t>Reward value given to a player who captures a goal.</t>
+  </si>
+  <si>
+    <t>Penalty value given to a goal which has been caught.</t>
+  </si>
+  <si>
+    <t>Number of Vertical Spaces in the Cat and Mouse grid.</t>
+  </si>
+  <si>
+    <t>Number of Horizontal Spaces in the Cat and Mouse grid.</t>
+  </si>
+  <si>
+    <t>Number of iterations before simulation timeout.</t>
+  </si>
+  <si>
+    <t>Gradient reward/penalty given to a player based on change in player proximity to all goals (based on manhattan distance).</t>
+  </si>
+  <si>
+    <t>Reward given to a player when their teammate captures a goal.</t>
+  </si>
+  <si>
+    <t>Penalty given to a player when an opponent player captures a goal.</t>
+  </si>
+  <si>
+    <t>Penalty given to a player when a collision with the outer game border occurs.</t>
+  </si>
+  <si>
+    <t>Penalty given to a player when a collision with a wall tile occurs.</t>
+  </si>
+  <si>
+    <t>Penalty given to a player when a collision with a teammate occurs.</t>
+  </si>
+  <si>
+    <t>Penalty given to a player when a collision with an opponent player occurs.</t>
+  </si>
+  <si>
+    <t>Penalty given to a goal when an attempt to move into a player space occurs.</t>
+  </si>
+  <si>
+    <t>Penalty given to all players for each timestep that passes.</t>
+  </si>
+  <si>
+    <t>Gradient reward/penalty given to a goal based on change in goal proximity to all players (based on manhattan distance).</t>
+  </si>
+  <si>
+    <t>Penalty given to all players for an episode that ends due to timelimit exceedance.</t>
+  </si>
+  <si>
+    <t>Reward given to all goals for an episode that ends due to timelimit exceedance.</t>
+  </si>
+  <si>
+    <t>Reward given to all goals for each timestep that passes.</t>
+  </si>
+  <si>
+    <t>Flag which allows goals to act as agents that can move.</t>
+  </si>
+  <si>
+    <t>Player (or goal) unique string identifier which is set at the creation of the player (or goal).</t>
+  </si>
+  <si>
+    <t>Player team number (allowable values are 1 through 5)</t>
+  </si>
+  <si>
+    <t>Horizontal starting position of the player (or goal).</t>
+  </si>
+  <si>
+    <t>Vertical starting position of the player (or goal).</t>
+  </si>
+  <si>
+    <t>Discount Factor to be used in reinforcement learning methods for the player (or goal).</t>
+  </si>
+  <si>
+    <t>Learning Rate to be used in reinforcement learning methods for the player (or goal).</t>
+  </si>
+  <si>
+    <t>Flag to destroy stored reinforcement learning training data for a player (or goal).</t>
+  </si>
+  <si>
+    <t>Frequency (number of learning steps) at which each player dumps its training settings into an external "save" file.</t>
+  </si>
+  <si>
+    <t>Flag that indicates agent learning is facilitated with the traditional tabular Q-Learning method.</t>
+  </si>
+  <si>
+    <t>Flag that indicates agent learning is facilitated with the traditional Deep Q-Network method.</t>
+  </si>
+  <si>
+    <t>Flag that indicates agent learning is facilitated with the improved Double Deep Q-Network method.</t>
+  </si>
+  <si>
+    <t>Fixed Vertical Position for a wall instance.</t>
+  </si>
+  <si>
+    <t>Fixed Horizontal Position for a wall instance.</t>
+  </si>
+  <si>
+    <t>Learning Rate to be used in tabular reinforcement learning methods.</t>
+  </si>
+  <si>
+    <t>Discount Factor to be used in tabular reinforcement learning methods.</t>
+  </si>
+  <si>
+    <t>qnetwork_hidden_layer_sizes</t>
+  </si>
+  <si>
+    <t>Sets the number of nodes to be used in the hidden layers of any Q network configured for the agent.</t>
+  </si>
+  <si>
+    <t>Sets the number of nodes to be used in the hidden layers of the Q network instance.</t>
+  </si>
+  <si>
+    <t>Learning Rate to be used in network reinforcement learning methods.</t>
+  </si>
+  <si>
+    <t>Discount Factor to be used in network reinforcement learning methods.</t>
+  </si>
+  <si>
+    <t>Flag to indicate whether networks should be training during simulation or prediction-only.</t>
+  </si>
+  <si>
+    <t>Sets the maximum number of states, actions, and rewards to store for the purpose of training Q networks.</t>
+  </si>
+  <si>
+    <t>Sets the frequency at which the "Target Network" is updated in Q Network learning algorithms.</t>
+  </si>
+  <si>
+    <t>Sets the size of (without replacement) data selections to be used in each Q Network training iteration.</t>
+  </si>
+  <si>
+    <t>Sets the number of actions to be taken before each Q Network learning step.</t>
+  </si>
+  <si>
+    <t>Sets the number of training iteration (of size "network_minibatch_size") which occur every Q Network learning step.</t>
+  </si>
+  <si>
+    <t>Sets the number of states to be concatenated into the "preprocessed states" which are used in the Q Network algorithms</t>
+  </si>
+  <si>
+    <t>ID of the policy type to be used by the agent by default.</t>
+  </si>
+  <si>
+    <t>Epsilon value to be used by the e-Greedy policy by default.</t>
+  </si>
+  <si>
+    <t>List of temporary policies which can be used to facilitate exploration phases and greedy behavior phases.</t>
+  </si>
+  <si>
+    <t>List of simulation iteration counts over which each temporary policy will be applied.</t>
+  </si>
+  <si>
+    <t>List of epsilon values to be applied in each temporary e-Greedy policiy (if applicable).</t>
+  </si>
+  <si>
+    <t>List of node counts to be used in each layer of the neural network.</t>
+  </si>
+  <si>
+    <t>Sets size of data applied in each training step of the network.  (Note that this parameter is only used if the neural_network class is used independently as a classifier.  This functionality is not leaveraged by the Q Network class or any other component of this model).</t>
+  </si>
+  <si>
+    <t>List of learning rates to be applied to each layer of the neural network instance.</t>
+  </si>
+  <si>
+    <t>List of Leaky ReLU parameters to be used for any layer that utilized the Leaky ReLU activation function.</t>
+  </si>
+  <si>
+    <t>Flag which indicated that Huber Cost should be used to train the network instance.</t>
+  </si>
+  <si>
+    <t>Sets the delta parameter for the (default) Huber Cost function.</t>
+  </si>
+  <si>
+    <t>Flag which indicated that Hellinger Cost should be used to train the network instance.</t>
+  </si>
+  <si>
+    <t>Flag which indicated that Quadratic Cost should be used to train the network instance.</t>
+  </si>
+  <si>
+    <t>List of Flags which indicate whether each layer should use the Leaky ReLU activation function or not.</t>
+  </si>
+  <si>
+    <t>List of Flags which indicate whether each layer should use the Sigmoid activation function or not.</t>
+  </si>
+  <si>
+    <t>List of Flags which indicate whether each layer should use the ReLU activation function or not.</t>
+  </si>
+  <si>
+    <t>List of Flags which indicate whether each layer should use the Linear activation function or not.</t>
+  </si>
+  <si>
+    <t>List of Flags which indicate whether each layer should use the Tanh activation function or not.</t>
+  </si>
+  <si>
+    <t>Sets the number of mean squared error values to save for plotting and diagnostic purposes.</t>
+  </si>
+  <si>
+    <t>Learning Param</t>
+  </si>
+  <si>
+    <t>[256, 128]</t>
   </si>
 </sst>
 </file>
@@ -199,12 +490,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,16 +516,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -249,15 +555,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0995D905-F1C2-435F-8DE3-AB876DF9A73D}" name="Table1" displayName="Table1" ref="A1:F100" totalsRowShown="0">
-  <autoFilter ref="A1:F100" xr:uid="{47174BE7-E025-4135-B8AB-57399E03AB55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0995D905-F1C2-435F-8DE3-AB876DF9A73D}" name="Table1" displayName="Table1" ref="A1:F65" totalsRowShown="0">
+  <autoFilter ref="A1:F65" xr:uid="{47174BE7-E025-4135-B8AB-57399E03AB55}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition ref="D1:D65"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CE3572C0-218D-4A9C-890D-D2703C229464}" name="Class"/>
     <tableColumn id="5" xr3:uid="{0E521792-B763-4EE9-998F-9690EA71446B}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{D155A689-F29B-4C2F-B3DF-B69AB3CB9A7B}" name="Description" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D155A689-F29B-4C2F-B3DF-B69AB3CB9A7B}" name="Description" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{18502407-89D0-414F-AAED-26F9F948B7DE}" name="Category"/>
     <tableColumn id="7" xr3:uid="{3D46D3AB-1723-4DC0-9783-E0BF7433F99A}" name="Default Value" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{5757C9DF-1E5B-4696-83CE-AAD6DD9C55F2}" name="(delete this): Currently configurable via gridworld set/get?"/>
+    <tableColumn id="4" xr3:uid="{623F16F3-33D9-4389-97C8-D90CEB07DDE6}" name="World Class Set Function" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -526,20 +835,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -555,463 +864,958 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
+        <v>146</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
+        <v>146</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
